--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>16317900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>13020800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>13020800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10588100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>10588100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>19037700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>19037700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>6573400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>6573400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>8233400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>8233400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>16919900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>16919900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>13270200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>13270200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>18958500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>18958500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>11376800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>11376800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>18506800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>18506800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>15486800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>15486800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>26671100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,76 @@
         <v>26671100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>23005100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>32487200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>32487200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>48439600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>33598100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>33598100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>14480300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>14480300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>16499400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>16499400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>27718000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>27718000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>461594900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>461594900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>151534800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>216624100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>216624100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>65501100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>65501100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>138424500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1561"/>
+  <dimension ref="A1:I1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55017,6 +55017,41 @@
         <v>138424500</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>122945100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1562"/>
+  <dimension ref="A1:I1563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55052,6 +55052,41 @@
         <v>122945100</v>
       </c>
     </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>138693800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1563"/>
+  <dimension ref="A1:I1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55087,6 +55087,41 @@
         <v>138693800</v>
       </c>
     </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>70774800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1564"/>
+  <dimension ref="A1:I1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55122,6 +55122,41 @@
         <v>70774800</v>
       </c>
     </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>102330900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1565"/>
+  <dimension ref="A1:I1566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55157,6 +55157,41 @@
         <v>102330900</v>
       </c>
     </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>108235800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1566"/>
+  <dimension ref="A1:I1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55192,6 +55192,41 @@
         <v>108235800</v>
       </c>
     </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>49944900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1567"/>
+  <dimension ref="A1:I1568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55227,6 +55227,41 @@
         <v>49944900</v>
       </c>
     </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>85399700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1568"/>
+  <dimension ref="A1:I1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55262,6 +55262,41 @@
         <v>85399700</v>
       </c>
     </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>118363800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1569"/>
+  <dimension ref="A1:I1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55297,6 +55297,41 @@
         <v>118363800</v>
       </c>
     </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>98819200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1570"/>
+  <dimension ref="A1:I1571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55332,6 +55332,41 @@
         <v>98819200</v>
       </c>
     </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>59439200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1571"/>
+  <dimension ref="A1:I1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55367,6 +55367,41 @@
         <v>59439200</v>
       </c>
     </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>35573000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1572"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55402,6 +55402,41 @@
         <v>35573000</v>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>49717300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1573"/>
+  <dimension ref="A1:I1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55437,6 +55437,41 @@
         <v>49717300</v>
       </c>
     </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>111332900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1574"/>
+  <dimension ref="A1:I1575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55472,6 +55472,41 @@
         <v>111332900</v>
       </c>
     </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>257104500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1575"/>
+  <dimension ref="A1:I1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55507,6 +55507,41 @@
         <v>257104500</v>
       </c>
     </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>370244200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1576"/>
+  <dimension ref="A1:I1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55542,6 +55542,41 @@
         <v>370244200</v>
       </c>
     </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>157823400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1577"/>
+  <dimension ref="A1:I1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55577,6 +55577,41 @@
         <v>157823400</v>
       </c>
     </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>117675500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1578"/>
+  <dimension ref="A1:I1579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55612,6 +55612,41 @@
         <v>117675500</v>
       </c>
     </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>44653100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1579"/>
+  <dimension ref="A1:I1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55647,6 +55647,41 @@
         <v>44653100</v>
       </c>
     </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>95421400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1580"/>
+  <dimension ref="A1:I1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55682,6 +55682,41 @@
         <v>95421400</v>
       </c>
     </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>122820200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1581"/>
+  <dimension ref="A1:I1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55717,6 +55717,41 @@
         <v>122820200</v>
       </c>
     </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>88057600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1582"/>
+  <dimension ref="A1:I1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55752,6 +55752,41 @@
         <v>88057600</v>
       </c>
     </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1583" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>67212100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1583"/>
+  <dimension ref="A1:I1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55787,6 +55787,41 @@
         <v>67212100</v>
       </c>
     </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1584" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>49801000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1584"/>
+  <dimension ref="A1:I1585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55822,6 +55822,41 @@
         <v>49801000</v>
       </c>
     </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1585" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>28335500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1585"/>
+  <dimension ref="A1:I1586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55857,6 +55857,41 @@
         <v>28335500</v>
       </c>
     </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1586" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>60536400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1586"/>
+  <dimension ref="A1:I1588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55892,6 +55892,76 @@
         <v>60536400</v>
       </c>
     </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1587" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>32278500</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1588" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>246923600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1588"/>
+  <dimension ref="A1:I1589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55962,6 +55962,41 @@
         <v>246923600</v>
       </c>
     </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1589" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>126610100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1589"/>
+  <dimension ref="A1:I1592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55997,6 +55997,111 @@
         <v>126610100</v>
       </c>
     </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1590" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>65110500</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1591" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>155226800</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1592" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>104671900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1592"/>
+  <dimension ref="A1:I1593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56102,6 +56102,41 @@
         <v>104671900</v>
       </c>
     </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1593" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>127887000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1593"/>
+  <dimension ref="A1:I1594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56137,6 +56137,41 @@
         <v>127887000</v>
       </c>
     </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1594" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>58754300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5243.xlsx
+++ b/data/5243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1594"/>
+  <dimension ref="A1:I1597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56172,6 +56172,111 @@
         <v>58754300</v>
       </c>
     </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1595" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>215782900</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1596" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>46877900</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>VELESTO</t>
+        </is>
+      </c>
+      <c r="E1597" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>169867200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
